--- a/SuRGE_Sharepoint/data/CIN/CH4_070_francis_case_riverine/dataSheets/surgeData70Riverine.xlsx
+++ b/SuRGE_Sharepoint/data/CIN/CH4_070_francis_case_riverine/dataSheets/surgeData70Riverine.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usepa.sharepoint.com/sites/SuRGE/Shared Documents/data/CIN/CH4_070_francis_case_riverine/dataSheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usepa-my.sharepoint.com/personal/beaulieu_jake_epa_gov/Documents/gitRepository/SuRGE/SuRGE_Sharepoint/data/CIN/CH4_070_francis_case_riverine/dataSheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{2FA17500-E920-4072-996D-0191A222BF5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ADF4D8A2-A9B6-4AF0-A3B4-AC3ECAB98088}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{2FA17500-E920-4072-996D-0191A222BF5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{30E28EBA-695B-4B28-8321-9B2E01519D99}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4488" yWindow="5112" windowWidth="40200" windowHeight="12516" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -545,9 +545,6 @@
     <t>TS</t>
   </si>
   <si>
-    <t>SG211231</t>
-  </si>
-  <si>
     <t>06.28.2021</t>
   </si>
   <si>
@@ -636,6 +633,9 @@
   </si>
   <si>
     <t>70_riverine</t>
+  </si>
+  <si>
+    <t>SG211271</t>
   </si>
 </sst>
 </file>
@@ -1312,14 +1312,10 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1357,7 +1353,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1463,7 +1459,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1605,7 +1601,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1617,7 +1613,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E11" sqref="E11"/>
+      <selection pane="topRight" activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1978,10 +1974,10 @@
     </row>
     <row r="3" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C3" t="s">
         <v>167</v>
@@ -1993,13 +1989,13 @@
         <v>99.416020000000003</v>
       </c>
       <c r="F3" s="28" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G3" s="29">
         <v>0.66319444444444442</v>
       </c>
       <c r="H3" s="28" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I3" s="29">
         <v>0.71527777777777779</v>
@@ -2060,7 +2056,7 @@
         <v>409.5</v>
       </c>
       <c r="BO3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="BP3" s="27">
         <v>0.77256944444444453</v>
@@ -2068,10 +2064,10 @@
     </row>
     <row r="4" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A4" s="25" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C4" t="s">
         <v>167</v>
@@ -2083,13 +2079,13 @@
         <v>99.421199999999999</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G4" s="29">
         <v>0.6694444444444444</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I4" s="29">
         <v>0.70833333333333337</v>
@@ -2098,7 +2094,7 @@
         <v>0</v>
       </c>
       <c r="R4" s="28" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="S4" s="27">
         <v>0.7631944444444444</v>
@@ -2159,10 +2155,10 @@
     </row>
     <row r="5" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A5" s="25" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C5" t="s">
         <v>167</v>
@@ -2174,13 +2170,13 @@
         <v>99.431209999999993</v>
       </c>
       <c r="F5" s="28" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G5" s="29">
         <v>0.67499999999999993</v>
       </c>
       <c r="H5" s="28" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I5" s="29">
         <v>0.70486111111111116</v>
@@ -2189,7 +2185,7 @@
         <v>0</v>
       </c>
       <c r="R5" s="28" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="S5" s="27">
         <v>0.75277777777777777</v>
@@ -2250,7 +2246,7 @@
     </row>
     <row r="6" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A6" s="25" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B6" t="s">
         <v>166</v>
@@ -2265,13 +2261,13 @@
         <v>99.424220000000005</v>
       </c>
       <c r="F6" s="28" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G6" s="29">
         <v>0.6791666666666667</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I6" s="29">
         <v>0.69444444444444453</v>
@@ -2280,7 +2276,7 @@
         <v>1</v>
       </c>
       <c r="R6" s="28" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="S6" s="27">
         <v>0.74687500000000007</v>
@@ -2337,21 +2333,21 @@
         <v>11</v>
       </c>
       <c r="BJ6" t="s">
+        <v>169</v>
+      </c>
+      <c r="BK6" t="s">
         <v>170</v>
       </c>
-      <c r="BK6" t="s">
+      <c r="BL6" t="s">
         <v>171</v>
-      </c>
-      <c r="BL6" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="7" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A7" s="25" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C7" t="s">
         <v>167</v>
@@ -2363,13 +2359,13 @@
         <v>99.414500000000004</v>
       </c>
       <c r="F7" s="28" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G7" s="29">
         <v>0.68472222222222223</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I7" s="29">
         <v>0.6875</v>
@@ -2378,7 +2374,7 @@
         <v>0</v>
       </c>
       <c r="R7" s="28" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="S7" s="27">
         <v>0.73692129629629621</v>
@@ -2437,10 +2433,10 @@
     </row>
     <row r="8" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A8" s="25" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C8" t="s">
         <v>167</v>
@@ -2452,13 +2448,13 @@
         <v>99.411100000000005</v>
       </c>
       <c r="F8" s="28" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G8" s="29">
         <v>0.69305555555555554</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I8" s="29">
         <v>0.68402777777777779</v>
@@ -2467,7 +2463,7 @@
         <v>0</v>
       </c>
       <c r="R8" s="28" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="S8" s="27">
         <v>0.72231481481481474</v>
@@ -2526,10 +2522,10 @@
     </row>
     <row r="9" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A9" s="25" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C9" t="s">
         <v>167</v>
@@ -2541,13 +2537,13 @@
         <v>99.425359999999998</v>
       </c>
       <c r="F9" s="28" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G9" s="29">
         <v>0.6972222222222223</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I9" s="29">
         <v>0.68055555555555547</v>
@@ -2556,7 +2552,7 @@
         <v>1</v>
       </c>
       <c r="R9" s="28" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="S9" s="27">
         <v>0.71180555555555547</v>
@@ -2615,10 +2611,10 @@
     </row>
     <row r="10" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A10" s="25" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C10" t="s">
         <v>167</v>
@@ -2630,13 +2626,13 @@
         <v>99.42165</v>
       </c>
       <c r="F10" s="28" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G10" s="29">
         <v>0.70277777777777783</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I10" s="29">
         <v>0.67361111111111116</v>
@@ -2645,15 +2641,15 @@
         <v>27</v>
       </c>
       <c r="L10" t="s">
-        <v>168</v>
+        <v>198</v>
       </c>
     </row>
     <row r="11" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A11" s="25" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C11" t="s">
         <v>167</v>
@@ -2665,13 +2661,13 @@
         <v>99.422460000000001</v>
       </c>
       <c r="F11" s="28" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G11" s="29">
         <v>0.70833333333333337</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I11" s="29">
         <v>0.67013888888888884</v>
@@ -2680,7 +2676,7 @@
         <v>0</v>
       </c>
       <c r="R11" s="28" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="S11" s="27">
         <v>0.70250000000000001</v>
@@ -2739,10 +2735,10 @@
     </row>
     <row r="12" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A12" s="25" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C12" t="s">
         <v>167</v>
@@ -2754,13 +2750,13 @@
         <v>99.408289999999994</v>
       </c>
       <c r="F12" s="28" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G12" s="29">
         <v>0.72083333333333333</v>
       </c>
       <c r="H12" s="28" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I12" s="29">
         <v>0.64652777777777781</v>
@@ -2769,7 +2765,7 @@
         <v>0</v>
       </c>
       <c r="R12" s="28" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="S12" s="27">
         <v>0.66597222222222219</v>
@@ -2828,10 +2824,10 @@
     </row>
     <row r="13" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A13" s="25" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B13" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C13" t="s">
         <v>167</v>
@@ -2843,13 +2839,13 @@
         <v>99.40307</v>
       </c>
       <c r="F13" s="28" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G13" s="29">
         <v>0.72638888888888886</v>
       </c>
       <c r="H13" s="28" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I13" s="29">
         <v>0.6333333333333333</v>
@@ -2858,7 +2854,7 @@
         <v>0</v>
       </c>
       <c r="R13" s="28" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="S13" s="27">
         <v>0.64849537037037031</v>
@@ -2917,10 +2913,10 @@
     </row>
     <row r="14" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A14" s="25" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B14" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C14" t="s">
         <v>167</v>
@@ -2932,13 +2928,13 @@
         <v>99.395600000000002</v>
       </c>
       <c r="F14" s="28" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G14" s="29">
         <v>0.73611111111111116</v>
       </c>
       <c r="H14" s="28" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I14" s="29">
         <v>0.63888888888888895</v>
@@ -2947,7 +2943,7 @@
         <v>5</v>
       </c>
       <c r="R14" s="28" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="S14" s="27">
         <v>0.65708333333333335</v>
@@ -2985,10 +2981,10 @@
     </row>
     <row r="15" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A15" s="25" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C15" t="s">
         <v>167</v>
@@ -3000,13 +2996,13 @@
         <v>99.406850000000006</v>
       </c>
       <c r="F15" s="28" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G15" s="29">
         <v>0.375</v>
       </c>
       <c r="H15" s="28" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I15" s="29">
         <v>0.62777777777777777</v>
@@ -3015,7 +3011,7 @@
         <v>0</v>
       </c>
       <c r="R15" s="28" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="S15" s="27">
         <v>0.67962962962962958</v>
@@ -3074,10 +3070,10 @@
     </row>
     <row r="16" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A16" s="25" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B16" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C16" t="s">
         <v>167</v>
@@ -3089,13 +3085,13 @@
         <v>99.405559999999994</v>
       </c>
       <c r="F16" s="28" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G16" s="29">
         <v>0.66527777777777775</v>
       </c>
       <c r="H16" s="28" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I16" s="29">
         <v>0.64236111111111105</v>
@@ -3104,7 +3100,7 @@
         <v>0</v>
       </c>
       <c r="R16" s="28" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="S16" s="27">
         <v>0.69166666666666676</v>
@@ -3163,10 +3159,10 @@
     </row>
     <row r="17" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A17" s="25" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B17" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C17" t="s">
         <v>167</v>
@@ -3178,13 +3174,13 @@
         <v>99.409639999999996</v>
       </c>
       <c r="F17" s="28" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G17" s="29">
         <v>0.69166666666666676</v>
       </c>
       <c r="H17" s="28" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I17" s="29">
         <v>0.67708333333333337</v>
@@ -3193,7 +3189,7 @@
         <v>3</v>
       </c>
       <c r="R17" s="28" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="S17" s="27">
         <v>0.72953703703703709</v>
@@ -4034,7 +4030,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B3" t="s">
         <v>166</v>
@@ -4043,13 +4039,13 @@
         <v>0.1</v>
       </c>
       <c r="D3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E3">
         <v>28.1</v>
       </c>
       <c r="F3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G3">
         <v>115</v>
@@ -4066,7 +4062,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="25" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B4" t="s">
         <v>166</v>
@@ -4075,13 +4071,13 @@
         <v>0.1</v>
       </c>
       <c r="D4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E4">
         <v>27.7</v>
       </c>
       <c r="F4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G4">
         <v>115</v>
@@ -4098,7 +4094,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="25" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B5" t="s">
         <v>166</v>
@@ -4107,13 +4103,13 @@
         <v>0.1</v>
       </c>
       <c r="D5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E5">
         <v>27.9</v>
       </c>
       <c r="F5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G5">
         <v>115</v>
@@ -4130,7 +4126,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="25" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B6" t="s">
         <v>166</v>
@@ -4139,13 +4135,13 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E6">
         <v>25.6</v>
       </c>
       <c r="F6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G6">
         <v>115</v>
@@ -4162,7 +4158,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="25" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B7" t="s">
         <v>166</v>
@@ -4171,13 +4167,13 @@
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E7">
         <v>25.9</v>
       </c>
       <c r="F7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G7">
         <v>115</v>
@@ -4194,7 +4190,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="25" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B8" t="s">
         <v>166</v>
@@ -4203,13 +4199,13 @@
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E8">
         <v>26.2</v>
       </c>
       <c r="F8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G8">
         <v>115</v>
@@ -4373,48 +4369,20 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Record xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">Shared</Record>
-    <Language xmlns="http://schemas.microsoft.com/sharepoint/v3">English</Language>
-    <Document_x0020_Creation_x0020_Date xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">2020-10-21T13:32:44+00:00</Document_x0020_Creation_x0020_Date>
-    <_Source xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
-    <j747ac98061d40f0aa7bd47e1db5675d xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </j747ac98061d40f0aa7bd47e1db5675d>
-    <External_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <TaxKeywordTaxHTField xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </TaxKeywordTaxHTField>
-    <Rights xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <EPA_x0020_Office xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <CategoryDescription xmlns="http://schemas.microsoft.com/sharepoint.v3" xsi:nil="true"/>
-    <Identifier xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <_Coverage xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
-    <Creator xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Creator>
-    <EPA_x0020_Related_x0020_Documents xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <EPA_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </EPA_x0020_Contributor>
-    <TaxCatchAll xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ed970698-2d60-4bab-a048-d9be527522d9">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="29f62856-1543-49d4-a736-4569d363f533" ContentTypeId="0x0101" PreviousValue="false"/>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001AF5FC5DD832BE4DBA6B24560DD3ADC0" ma:contentTypeVersion="19" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d40b3e6283001fb57e5088f84fb23d5e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xmlns:ns3="http://schemas.microsoft.com/sharepoint.v3" xmlns:ns4="http://schemas.microsoft.com/sharepoint/v3/fields" xmlns:ns5="8b03727f-4454-4722-b3e6-018d8dcaf2fd" xmlns:ns6="ed970698-2d60-4bab-a048-d9be527522d9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="aadbb8160917885bdc8cfb32badaafe9" ns1:_="" ns2:_="" ns3:_="" ns4:_="" ns5:_="" ns6:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -4885,35 +4853,65 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="29f62856-1543-49d4-a736-4569d363f533" ContentTypeId="0x0101" PreviousValue="false"/>
-</file>
-
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Record xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">Shared</Record>
+    <Language xmlns="http://schemas.microsoft.com/sharepoint/v3">English</Language>
+    <Document_x0020_Creation_x0020_Date xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">2020-10-21T13:32:44+00:00</Document_x0020_Creation_x0020_Date>
+    <_Source xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
+    <j747ac98061d40f0aa7bd47e1db5675d xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </j747ac98061d40f0aa7bd47e1db5675d>
+    <External_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <TaxKeywordTaxHTField xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </TaxKeywordTaxHTField>
+    <Rights xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <EPA_x0020_Office xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <CategoryDescription xmlns="http://schemas.microsoft.com/sharepoint.v3" xsi:nil="true"/>
+    <Identifier xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <_Coverage xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
+    <Creator xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Creator>
+    <EPA_x0020_Related_x0020_Documents xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <EPA_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </EPA_x0020_Contributor>
+    <TaxCatchAll xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ed970698-2d60-4bab-a048-d9be527522d9">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D26D44A-9508-4707-B138-18882E5BA6FE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F4A5FCF-4499-487A-89B0-E215184C11DF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/fields"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint.v3"/>
-    <ds:schemaRef ds:uri="ed970698-2d60-4bab-a048-d9be527522d9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{845EA28A-135D-4CD8-9991-40FEAFECD172}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F85A6490-A4FD-48A0-8CAA-E2B88EB380BB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4936,18 +4934,16 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{845EA28A-135D-4CD8-9991-40FEAFECD172}">
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D26D44A-9508-4707-B138-18882E5BA6FE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F4A5FCF-4499-487A-89B0-E215184C11DF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/fields"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint.v3"/>
+    <ds:schemaRef ds:uri="ed970698-2d60-4bab-a048-d9be527522d9"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>